--- a/Projeto_InvestScape_DIO_FDB.xlsx
+++ b/Projeto_InvestScape_DIO_FDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="378"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -864,23 +864,11 @@
     <xf numFmtId="164" fontId="4" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="8" fontId="4" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,52 +888,22 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="5" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,27 +920,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,32 +949,32 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,6 +991,69 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1600,7 +1600,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1617,178 +1617,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="8">
         <v>1518</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="7">
         <f>D12*25%</f>
         <v>379.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13">
+      <c r="C17" s="65"/>
+      <c r="D17" s="9">
         <v>379.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="14">
+      <c r="C18" s="67"/>
+      <c r="D18" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15">
+      <c r="C19" s="67"/>
+      <c r="D19" s="11">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="35">
+      <c r="C20" s="69"/>
+      <c r="D20" s="21">
         <f>FV(taxa_mensal,(qtd_anos*12),aporte*-1,)</f>
         <v>92326.358655200354</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="36">
+      <c r="C21" s="71"/>
+      <c r="D21" s="22">
         <f>patrimonio_acumulado*rendimento_carteira</f>
         <v>830.93722789680317</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50" t="s">
+      <c r="C23" s="63"/>
+      <c r="D23" s="29" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1796,15 +1796,15 @@
       <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="15">
         <f>FV($D$19,A24*12,$D$17*-1)</f>
         <v>4834.2174872112146</v>
       </c>
-      <c r="D24" s="30">
-        <f>C24*rendimento_carteira</f>
+      <c r="D24" s="16">
+        <f t="shared" ref="D24:D38" si="0">C24*rendimento_carteira</f>
         <v>43.507957384900926</v>
       </c>
     </row>
@@ -1812,15 +1812,15 @@
       <c r="A25" s="1">
         <v>2</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="17">
         <f>FV($D$19,A25*12,$D$17*-1)</f>
         <v>10332.884559456359</v>
       </c>
-      <c r="D25" s="32">
-        <f>C25*rendimento_carteira</f>
+      <c r="D25" s="18">
+        <f t="shared" si="0"/>
         <v>92.995961035107229</v>
       </c>
     </row>
@@ -1828,15 +1828,15 @@
       <c r="A26" s="1">
         <v>3</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="17">
         <f>FV($D$19,A26*12,$D$17*-1)</f>
         <v>16587.32794173689</v>
       </c>
-      <c r="D26" s="32">
-        <f>C26*rendimento_carteira</f>
+      <c r="D26" s="18">
+        <f t="shared" si="0"/>
         <v>149.285951475632</v>
       </c>
     </row>
@@ -1844,15 +1844,15 @@
       <c r="A27" s="1">
         <v>4</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="17">
         <f>FV($D$19,A27*12,$D$17*-1)</f>
         <v>23701.426960316054</v>
       </c>
-      <c r="D27" s="32">
-        <f>C27*rendimento_carteira</f>
+      <c r="D27" s="18">
+        <f t="shared" si="0"/>
         <v>213.31284264284446</v>
       </c>
     </row>
@@ -1860,15 +1860,15 @@
       <c r="A28" s="1">
         <v>5</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="31">
-        <f t="shared" ref="C28:C38" si="0">FV($D$19,A28*12,$D$17*-1)</f>
+      <c r="C28" s="17">
+        <f t="shared" ref="C28:C38" si="1">FV($D$19,A28*12,$D$17*-1)</f>
         <v>31793.338862426062</v>
       </c>
-      <c r="D28" s="32">
-        <f>C28*rendimento_carteira</f>
+      <c r="D28" s="18">
+        <f t="shared" si="0"/>
         <v>286.14004976183452</v>
       </c>
     </row>
@@ -1876,15 +1876,15 @@
       <c r="A29" s="1">
         <v>6</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="31">
-        <f t="shared" si="0"/>
+      <c r="C29" s="17">
+        <f t="shared" si="1"/>
         <v>40997.46127631217</v>
       </c>
-      <c r="D29" s="32">
-        <f>C29*rendimento_carteira</f>
+      <c r="D29" s="18">
+        <f t="shared" si="0"/>
         <v>368.97715148680948</v>
       </c>
     </row>
@@ -1892,15 +1892,15 @@
       <c r="A30" s="1">
         <v>7</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="31">
-        <f t="shared" si="0"/>
+      <c r="C30" s="17">
+        <f t="shared" si="1"/>
         <v>51466.664405885356</v>
       </c>
-      <c r="D30" s="32">
-        <f>C30*rendimento_carteira</f>
+      <c r="D30" s="18">
+        <f t="shared" si="0"/>
         <v>463.19997965296818</v>
       </c>
     </row>
@@ -1908,15 +1908,15 @@
       <c r="A31" s="1">
         <v>8</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="31">
-        <f t="shared" si="0"/>
+      <c r="C31" s="17">
+        <f t="shared" si="1"/>
         <v>63374.830034246283</v>
       </c>
-      <c r="D31" s="32">
-        <f>C31*rendimento_carteira</f>
+      <c r="D31" s="18">
+        <f t="shared" si="0"/>
         <v>570.3734703082165</v>
       </c>
     </row>
@@ -1924,15 +1924,15 @@
       <c r="A32" s="1">
         <v>9</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="65">
-        <f t="shared" si="0"/>
+      <c r="C32" s="44">
+        <f t="shared" si="1"/>
         <v>76919.739506096186</v>
       </c>
-      <c r="D32" s="66">
-        <f>C32*rendimento_carteira</f>
+      <c r="D32" s="45">
+        <f t="shared" si="0"/>
         <v>692.27765555486565</v>
       </c>
     </row>
@@ -1940,15 +1940,15 @@
       <c r="A33" s="1">
         <v>10</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="65">
-        <f t="shared" si="0"/>
+      <c r="C33" s="44">
+        <f t="shared" si="1"/>
         <v>92326.358655200354</v>
       </c>
-      <c r="D33" s="66">
-        <f>C33*rendimento_carteira</f>
+      <c r="D33" s="45">
+        <f t="shared" si="0"/>
         <v>830.93722789680317</v>
       </c>
     </row>
@@ -1956,15 +1956,15 @@
       <c r="A34" s="1">
         <v>15</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="65">
-        <f t="shared" si="0"/>
+      <c r="C34" s="44">
+        <f t="shared" si="1"/>
         <v>207578.37735912058</v>
       </c>
-      <c r="D34" s="66">
-        <f>C34*rendimento_carteira</f>
+      <c r="D34" s="45">
+        <f t="shared" si="0"/>
         <v>1868.2053962320851</v>
       </c>
     </row>
@@ -1972,15 +1972,15 @@
       <c r="A35" s="1">
         <v>20</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="65">
-        <f t="shared" si="0"/>
+      <c r="C35" s="44">
+        <f t="shared" si="1"/>
         <v>427012.79283684207</v>
       </c>
-      <c r="D35" s="66">
-        <f>C35*rendimento_carteira</f>
+      <c r="D35" s="45">
+        <f t="shared" si="0"/>
         <v>3843.1151355315783</v>
       </c>
     </row>
@@ -1988,15 +1988,15 @@
       <c r="A36" s="1">
         <v>25</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="65">
-        <f t="shared" si="0"/>
+      <c r="C36" s="44">
+        <f t="shared" si="1"/>
         <v>844805.58499390911</v>
       </c>
-      <c r="D36" s="66">
-        <f>C36*rendimento_carteira</f>
+      <c r="D36" s="45">
+        <f t="shared" si="0"/>
         <v>7603.2502649451817</v>
       </c>
     </row>
@@ -2004,15 +2004,15 @@
       <c r="A37" s="1">
         <v>30</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="65">
-        <f t="shared" si="0"/>
+      <c r="C37" s="44">
+        <f t="shared" si="1"/>
         <v>1640263.3840742891</v>
       </c>
-      <c r="D37" s="66">
-        <f>C37*rendimento_carteira</f>
+      <c r="D37" s="45">
+        <f t="shared" si="0"/>
         <v>14762.370456668601</v>
       </c>
     </row>
@@ -2020,15 +2020,15 @@
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="33">
-        <f t="shared" si="0"/>
+      <c r="C38" s="19">
+        <f t="shared" si="1"/>
         <v>3154777.5690866588</v>
       </c>
-      <c r="D38" s="34">
-        <f>C38*rendimento_carteira</f>
+      <c r="D38" s="20">
+        <f t="shared" si="0"/>
         <v>28392.998121779925</v>
       </c>
     </row>
@@ -2036,120 +2036,120 @@
       <c r="D39"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77" t="s">
+      <c r="C40" s="55"/>
+      <c r="D40" s="56" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="74">
+      <c r="C41" s="47"/>
+      <c r="D41" s="53">
         <f>aporte</f>
         <v>379.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C43" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="79" t="s">
+      <c r="D43" s="58" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="52">
+      <c r="C44" s="31">
         <f>VLOOKUP(seu_perfil&amp;"-"&amp;B44,Dashboard_Keys!$A:$D,4,FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="49">
         <f>papel*aporte</f>
         <v>113.85</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="31">
         <f>VLOOKUP(seu_perfil&amp;"-"&amp;B45,Dashboard_Keys!$A:$D,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D45" s="70">
+      <c r="D45" s="49">
         <f>tijolo*aporte</f>
         <v>189.75</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="52">
+      <c r="C46" s="31">
         <f>VLOOKUP(seu_perfil&amp;"-"&amp;B46,Dashboard_Keys!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D46" s="70">
+      <c r="D46" s="49">
         <f>hibridos*aporte</f>
         <v>37.950000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="52">
+      <c r="C47" s="31">
         <f>VLOOKUP(seu_perfil&amp;"-"&amp;B47,Dashboard_Keys!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D47" s="70">
+      <c r="D47" s="49">
         <f>fofs*aporte</f>
         <v>37.950000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="52">
+      <c r="C48" s="31">
         <f>VLOOKUP(seu_perfil&amp;"-"&amp;B48,Dashboard_Keys!$A:$D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="70">
+      <c r="D48" s="49">
         <f>desenvolvimento*aporte</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="52">
+      <c r="C49" s="31">
         <f>VLOOKUP(seu_perfil&amp;"-"&amp;B49,Dashboard_Keys!$A:$D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="70">
+      <c r="D49" s="49">
         <f>hotelarias*aporte</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72">
+      <c r="C50" s="50"/>
+      <c r="D50" s="51">
         <f>SUM(D44:D49)</f>
         <v>379.5</v>
       </c>
@@ -2157,17 +2157,17 @@
     <row r="51" spans="2:4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D38">
     <cfRule type="dataBar" priority="5">
@@ -2294,31 +2294,31 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="str">
+      <c r="A3" s="24" t="str">
         <f>B3&amp;"-"&amp;C3</f>
         <v>Conservador-Papel</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="38">
         <v>0.3</v>
       </c>
     </row>
@@ -2327,10 +2327,10 @@
         <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
         <v>Conservador-Tijolo</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="3">
@@ -2342,10 +2342,10 @@
         <f t="shared" si="0"/>
         <v>Conservador-Híbridos</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="3">
@@ -2357,10 +2357,10 @@
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3">
@@ -2372,10 +2372,10 @@
         <f t="shared" si="0"/>
         <v>Conservador-Desenvolvimento</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="3">
@@ -2383,17 +2383,17 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="60" t="str">
+      <c r="A8" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-Hotelarias</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2402,10 +2402,10 @@
         <f t="shared" si="0"/>
         <v>Moderado-Papel</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="3">
@@ -2417,10 +2417,10 @@
         <f t="shared" si="0"/>
         <v>Moderado-Tijolo</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="3">
@@ -2432,10 +2432,10 @@
         <f t="shared" si="0"/>
         <v>Moderado-Híbridos</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="3">
@@ -2447,10 +2447,10 @@
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="3">
@@ -2462,10 +2462,10 @@
         <f t="shared" si="0"/>
         <v>Moderado-Desenvolvimento</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="3">
@@ -2473,17 +2473,17 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="60" t="str">
+      <c r="A14" s="39" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Hotelarias</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="40">
         <v>0.1</v>
       </c>
     </row>
@@ -2492,10 +2492,10 @@
         <f t="shared" si="0"/>
         <v>Agressivo-Papel</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="3">
@@ -2507,10 +2507,10 @@
         <f t="shared" si="0"/>
         <v>Agressivo-Tijolo</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="3">
@@ -2522,10 +2522,10 @@
         <f t="shared" si="0"/>
         <v>Agressivo-Híbridos</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="3">
@@ -2537,10 +2537,10 @@
         <f t="shared" si="0"/>
         <v>Agressivo-FOFs</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="3">
@@ -2552,10 +2552,10 @@
         <f t="shared" si="0"/>
         <v>Agressivo-Desenvolvimento</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="3">
@@ -2567,13 +2567,13 @@
         <f t="shared" si="0"/>
         <v>Agressivo-Hotelarias</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="42">
         <v>0.1</v>
       </c>
     </row>
